--- a/mechanical/development/platform/research/platform_bom.xlsx
+++ b/mechanical/development/platform/research/platform_bom.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GroundsBot\mechanical\development\platform\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GroundsBot\mechanical\development\platform\research\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" iterateDelta="1E-4"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Part No</t>
   </si>
@@ -50,91 +50,7 @@
     <t>Link</t>
   </si>
   <si>
-    <t>TD-111-135</t>
-  </si>
-  <si>
-    <t>SuperDroid Robots</t>
-  </si>
-  <si>
-    <t>Wheelchair Motors and Encoders</t>
-  </si>
-  <si>
-    <t>https://www.superdroidrobots.com/shop/item.aspx/dg-158a-24vdc-135-rpm-wheel-chair-motor-pair/1531/</t>
-  </si>
-  <si>
-    <t>SB2425</t>
-  </si>
-  <si>
-    <t>Smart Battery</t>
-  </si>
-  <si>
-    <t>24V 25 aH Battery</t>
-  </si>
-  <si>
-    <t>https://www.lithiumion-batteries.com/products/24-volt-lithium-batteries/24v-25ah-lithium-ion-battery.php</t>
-  </si>
-  <si>
-    <t>DP-RS2</t>
-  </si>
-  <si>
-    <t>Battery Charger</t>
-  </si>
-  <si>
-    <t>https://www.lithiumion-batteries.com/products/lithium-ion-chargers/24v-lithium-ion-battery-chargers/dual-bank-6-amp-charger.php</t>
-  </si>
-  <si>
-    <t>TE-240-030</t>
-  </si>
-  <si>
-    <t>Motor Controller</t>
-  </si>
-  <si>
-    <t>https://www.superdroidrobots.com/shop/item.aspx/roboteq-mdc2230-2x60a-30v-motor-controller-with-encoder-input/1833/</t>
-  </si>
-  <si>
-    <t>TD-178-000</t>
-  </si>
-  <si>
-    <t>13" tiller tires and mounting</t>
-  </si>
-  <si>
-    <t>https://www.superdroidrobots.com/shop/item.aspx/direct-drive-wheelchair-motor-wheel-and-shaft-set-pair-13-inch-traction-lug/2237/</t>
-  </si>
-  <si>
-    <t>S-5210-PRB</t>
-  </si>
-  <si>
-    <t>Caster Connection</t>
-  </si>
-  <si>
-    <t>10" Pneumatic Swivel Caster</t>
-  </si>
-  <si>
-    <t>https://casterconnection.com/s-5210-prb.html?gclid=CjwKCAjw87PNBRBAEiwA0XAIrzv-vv_1SgE1qnI4A9Fm936nc1XRkVN1DcO2pZ0RaGSao4ZK6p3N3xoChHAQAvD_BwE</t>
-  </si>
-  <si>
-    <t>NVIDIA Jetson TX2 Dev Kit</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/NVIDIA-Jetson-TX2-Development-Kit/dp/B06XPFH939</t>
-  </si>
-  <si>
-    <t>Misc Item Extrusion</t>
-  </si>
-  <si>
-    <t>Item</t>
-  </si>
-  <si>
-    <t>Misc Mechanical Parts</t>
-  </si>
-  <si>
-    <t>Misc Fasteners</t>
-  </si>
-  <si>
-    <t>McMaster-Carr</t>
-  </si>
-  <si>
-    <t>Misc Electrical Parts</t>
+    <t>4.5"x9"x0.375" plate</t>
   </si>
 </sst>
 </file>
@@ -144,7 +60,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_(\$* #,##0.00_);_(\$* \(#,##0.00\);_(\$* \-??_);_(@_)"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -154,21 +70,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0563C1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -193,23 +94,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Currency" xfId="1" builtinId="4"/>
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -590,10 +485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK26"/>
+  <dimension ref="A1:AMK2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -637,327 +532,16 @@
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="3">
-        <v>897</v>
-      </c>
       <c r="E2" s="1">
-        <v>1</v>
-      </c>
-      <c r="F2" s="4">
-        <f t="shared" ref="F2:F11" si="0">E2*D2</f>
-        <v>897</v>
-      </c>
-      <c r="G2" s="5">
-        <v>31</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="3">
-        <v>699.98</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="4">
-        <f t="shared" si="0"/>
-        <v>699.98</v>
-      </c>
-      <c r="G3" s="5">
-        <v>18</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="3">
-        <v>164.99</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1</v>
-      </c>
-      <c r="F4" s="4">
-        <f t="shared" si="0"/>
-        <v>164.99</v>
-      </c>
-      <c r="G4" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="3">
-        <v>328.91</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1</v>
-      </c>
-      <c r="F5" s="4">
-        <f t="shared" si="0"/>
-        <v>328.91</v>
-      </c>
-      <c r="G5" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="3">
-        <v>148.80000000000001</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1</v>
-      </c>
-      <c r="F6" s="4">
-        <f t="shared" si="0"/>
-        <v>148.80000000000001</v>
-      </c>
-      <c r="G6" s="5">
-        <v>16</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="3">
-        <v>67.63</v>
-      </c>
-      <c r="E7" s="1">
-        <v>1</v>
-      </c>
-      <c r="F7" s="4">
-        <f t="shared" si="0"/>
-        <v>67.63</v>
-      </c>
-      <c r="G7" s="5">
-        <v>12</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8"/>
-      <c r="B8"/>
-      <c r="C8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="3">
-        <v>560</v>
-      </c>
-      <c r="E8" s="1">
-        <v>1</v>
-      </c>
-      <c r="F8" s="4">
-        <f t="shared" si="0"/>
-        <v>560</v>
-      </c>
-      <c r="G8" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="3">
-        <v>1100</v>
-      </c>
-      <c r="E9" s="1">
-        <v>1</v>
-      </c>
-      <c r="F9" s="4">
-        <f t="shared" si="0"/>
-        <v>1100</v>
-      </c>
-      <c r="G9" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="3">
-        <v>500</v>
-      </c>
-      <c r="E10" s="1">
-        <v>1</v>
-      </c>
-      <c r="F10" s="4">
-        <f t="shared" si="0"/>
-        <v>500</v>
-      </c>
-      <c r="G10" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F11" s="4">
-        <f t="shared" si="0"/>
+      <c r="F2" s="3">
+        <f t="shared" ref="F2" si="0">E2*D2</f>
         <v>0</v>
       </c>
-      <c r="G11" s="5"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F12"/>
-      <c r="G12"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F13" s="4">
-        <f>SUM(F2:F11)</f>
-        <v>4467.3100000000004</v>
-      </c>
-      <c r="G13" s="1">
-        <f>SUM(G2:G11)</f>
-        <v>85.1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F14"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F15"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F16" s="1">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="17" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F17" s="1">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="18" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F18" s="1">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="19" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F19" s="1">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="20" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F20" s="1">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="21" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F21" s="1">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="22" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F22" s="1">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="23" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F23" s="1">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="24" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F24" s="1">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="25" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F25" s="1">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="26" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F26" s="1">
-        <f>SUM(F16:F25)</f>
-        <v>4375</v>
-      </c>
+      <c r="G2" s="4"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1"/>
-    <hyperlink ref="H3" r:id="rId2"/>
-    <hyperlink ref="H4" r:id="rId3"/>
-    <hyperlink ref="H5" r:id="rId4"/>
-    <hyperlink ref="H6" r:id="rId5"/>
-    <hyperlink ref="H7" r:id="rId6"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
